--- a/measurements.xlsx
+++ b/measurements.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JELENA\FAKS\3.godina\6.semestar\zavrsni\zavrsni-rad\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA10580A-BD7C-4EEB-952E-89DBBB7938E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B5C38F0-227A-45AB-A443-8529F938FFA7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{59AAA055-06BE-4089-858D-5DFDDCE26241}"/>
+    <workbookView xWindow="2928" yWindow="2928" windowWidth="12600" windowHeight="8964" xr2:uid="{59AAA055-06BE-4089-858D-5DFDDCE26241}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -70,7 +70,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="238"/>
@@ -458,7 +457,7 @@
   <dimension ref="F1:J10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -499,8 +498,8 @@
       <c r="G3" s="4">
         <v>5</v>
       </c>
-      <c r="H3" s="4">
-        <v>-12</v>
+      <c r="H3" s="5">
+        <v>-10</v>
       </c>
       <c r="J3" s="4">
         <v>440</v>
@@ -513,8 +512,8 @@
       <c r="G4" s="4">
         <v>10</v>
       </c>
-      <c r="H4" s="4">
-        <v>-13</v>
+      <c r="H4" s="5">
+        <v>-16</v>
       </c>
       <c r="J4" s="4">
         <v>440</v>
@@ -527,8 +526,8 @@
       <c r="G5" s="4">
         <v>20</v>
       </c>
-      <c r="H5" s="4">
-        <v>-19</v>
+      <c r="H5" s="5">
+        <v>-23</v>
       </c>
       <c r="J5" s="4">
         <v>440</v>
@@ -541,8 +540,8 @@
       <c r="G6" s="4">
         <v>35</v>
       </c>
-      <c r="H6" s="4">
-        <v>-29</v>
+      <c r="H6" s="5">
+        <v>-26</v>
       </c>
       <c r="J6" s="4">
         <v>440</v>
@@ -555,8 +554,8 @@
       <c r="G7" s="4">
         <v>50</v>
       </c>
-      <c r="H7" s="4">
-        <v>-35</v>
+      <c r="H7" s="5">
+        <v>-29</v>
       </c>
       <c r="J7" s="4">
         <v>440</v>
@@ -606,5 +605,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/measurements.xlsx
+++ b/measurements.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JELENA\FAKS\3.godina\6.semestar\zavrsni\zavrsni-rad\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B5C38F0-227A-45AB-A443-8529F938FFA7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21DB068E-CEA7-40F9-93AD-C74FA4E1AE30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2928" yWindow="2928" windowWidth="12600" windowHeight="8964" xr2:uid="{59AAA055-06BE-4089-858D-5DFDDCE26241}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{59AAA055-06BE-4089-858D-5DFDDCE26241}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -457,7 +457,7 @@
   <dimension ref="F1:J10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+      <selection activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/measurements.xlsx
+++ b/measurements.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JELENA\FAKS\3.godina\6.semestar\zavrsni\zavrsni-rad\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21DB068E-CEA7-40F9-93AD-C74FA4E1AE30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9A9E5FD-88E2-4A06-BAD6-095AAED845A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{59AAA055-06BE-4089-858D-5DFDDCE26241}"/>
   </bookViews>
@@ -155,6 +155,1128 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="hr-HR"/>
+              <a:t>Ovisnost intenziteta zvuka</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="hr-HR" baseline="0"/>
+              <a:t> o udaljenosti</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="sr-Latn-RS"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$G$3:$G$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$H$3:$H$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>-10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-16</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-25</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-23</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-30</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-31</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-26</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-35</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-37</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-30</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-33</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-35</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-39</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-41</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-31</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-47</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-42</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-36</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>-34</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>-40</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-F0A1-4A02-AB74-D94AEBB63B4B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="1661374575"/>
+        <c:axId val="1661372495"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1661374575"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="hr-HR"/>
+                  <a:t>UDALJENOST</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="hr-HR" baseline="0"/>
+                  <a:t> (cm)</a:t>
+                </a:r>
+                <a:endParaRPr lang="hr-HR"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="sr-Latn-RS"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="sr-Latn-RS"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1661372495"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1661372495"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="hr-HR"/>
+                  <a:t>INTENZITET ZVUKA (dB)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="sr-Latn-RS"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="sr-Latn-RS"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1661374575"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="sr-Latn-RS"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>655320</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>179070</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>403860</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>160020</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0D425165-C1E8-ACE8-8360-25BE29FDC369}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -454,10 +1576,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33AA949A-4943-4AB9-B017-E41F54B3B033}">
-  <dimension ref="F1:J10"/>
+  <dimension ref="F1:J22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K8" sqref="K8"/>
+      <selection activeCell="U6" sqref="U6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -524,10 +1646,10 @@
         <v>3</v>
       </c>
       <c r="G5" s="4">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="H5" s="5">
-        <v>-23</v>
+        <v>-25</v>
       </c>
       <c r="J5" s="4">
         <v>440</v>
@@ -538,10 +1660,10 @@
         <v>4</v>
       </c>
       <c r="G6" s="4">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="H6" s="5">
-        <v>-26</v>
+        <v>-23</v>
       </c>
       <c r="J6" s="4">
         <v>440</v>
@@ -552,10 +1674,10 @@
         <v>5</v>
       </c>
       <c r="G7" s="4">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="H7" s="5">
-        <v>-29</v>
+        <v>-30</v>
       </c>
       <c r="J7" s="4">
         <v>440</v>
@@ -565,8 +1687,8 @@
       <c r="F8">
         <v>6</v>
       </c>
-      <c r="G8" s="5">
-        <v>75</v>
+      <c r="G8" s="4">
+        <v>30</v>
       </c>
       <c r="H8" s="5">
         <v>-31</v>
@@ -579,11 +1701,11 @@
       <c r="F9">
         <v>7</v>
       </c>
-      <c r="G9" s="5">
-        <v>90</v>
+      <c r="G9" s="4">
+        <v>35</v>
       </c>
       <c r="H9" s="5">
-        <v>-35</v>
+        <v>-26</v>
       </c>
       <c r="J9" s="4">
         <v>440</v>
@@ -593,18 +1715,151 @@
       <c r="F10">
         <v>8</v>
       </c>
-      <c r="G10" s="5">
-        <v>100</v>
+      <c r="G10" s="4">
+        <v>40</v>
       </c>
       <c r="H10" s="5">
-        <v>-40</v>
+        <v>-35</v>
       </c>
       <c r="J10" s="4">
         <v>440</v>
+      </c>
+    </row>
+    <row r="11" spans="6:10" x14ac:dyDescent="0.3">
+      <c r="F11">
+        <v>9</v>
+      </c>
+      <c r="G11" s="4">
+        <v>45</v>
+      </c>
+      <c r="H11" s="5">
+        <v>-37</v>
+      </c>
+    </row>
+    <row r="12" spans="6:10" x14ac:dyDescent="0.3">
+      <c r="F12">
+        <v>10</v>
+      </c>
+      <c r="G12" s="4">
+        <v>50</v>
+      </c>
+      <c r="H12" s="5">
+        <v>-30</v>
+      </c>
+    </row>
+    <row r="13" spans="6:10" x14ac:dyDescent="0.3">
+      <c r="F13">
+        <v>11</v>
+      </c>
+      <c r="G13" s="4">
+        <v>55</v>
+      </c>
+      <c r="H13" s="5">
+        <v>-33</v>
+      </c>
+    </row>
+    <row r="14" spans="6:10" x14ac:dyDescent="0.3">
+      <c r="F14">
+        <v>12</v>
+      </c>
+      <c r="G14" s="4">
+        <v>60</v>
+      </c>
+      <c r="H14" s="5">
+        <v>-35</v>
+      </c>
+    </row>
+    <row r="15" spans="6:10" x14ac:dyDescent="0.3">
+      <c r="F15">
+        <v>13</v>
+      </c>
+      <c r="G15" s="4">
+        <v>65</v>
+      </c>
+      <c r="H15" s="5">
+        <v>-39</v>
+      </c>
+    </row>
+    <row r="16" spans="6:10" x14ac:dyDescent="0.3">
+      <c r="F16">
+        <v>14</v>
+      </c>
+      <c r="G16" s="4">
+        <v>70</v>
+      </c>
+      <c r="H16" s="5">
+        <v>-41</v>
+      </c>
+    </row>
+    <row r="17" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="F17">
+        <v>15</v>
+      </c>
+      <c r="G17" s="5">
+        <v>75</v>
+      </c>
+      <c r="H17" s="5">
+        <v>-31</v>
+      </c>
+    </row>
+    <row r="18" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="F18">
+        <v>16</v>
+      </c>
+      <c r="G18" s="4">
+        <v>80</v>
+      </c>
+      <c r="H18" s="5">
+        <v>-47</v>
+      </c>
+    </row>
+    <row r="19" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="F19">
+        <v>17</v>
+      </c>
+      <c r="G19" s="4">
+        <v>85</v>
+      </c>
+      <c r="H19" s="5">
+        <v>-42</v>
+      </c>
+    </row>
+    <row r="20" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="F20">
+        <v>18</v>
+      </c>
+      <c r="G20" s="5">
+        <v>90</v>
+      </c>
+      <c r="H20" s="5">
+        <v>-36</v>
+      </c>
+    </row>
+    <row r="21" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="F21">
+        <v>19</v>
+      </c>
+      <c r="G21" s="4">
+        <v>95</v>
+      </c>
+      <c r="H21" s="5">
+        <v>-34</v>
+      </c>
+    </row>
+    <row r="22" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="F22">
+        <v>20</v>
+      </c>
+      <c r="G22" s="5">
+        <v>100</v>
+      </c>
+      <c r="H22" s="5">
+        <v>-40</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/measurements.xlsx
+++ b/measurements.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JELENA\FAKS\3.godina\6.semestar\zavrsni\zavrsni-rad\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9A9E5FD-88E2-4A06-BAD6-095AAED845A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35A98676-C670-4D90-9FF7-132089BC189C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{59AAA055-06BE-4089-858D-5DFDDCE26241}"/>
   </bookViews>
@@ -201,6 +201,14 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.22728912254231695"/>
+          <c:y val="4.5211672831894777E-2"/>
+        </c:manualLayout>
+      </c:layout>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1242,16 +1250,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>655320</xdr:colOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>121920</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>179070</xdr:rowOff>
+      <xdr:rowOff>41910</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>403860</xdr:colOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>335280</xdr:colOff>
       <xdr:row>21</xdr:row>
-      <xdr:rowOff>160020</xdr:rowOff>
+      <xdr:rowOff>22860</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1579,7 +1587,7 @@
   <dimension ref="F1:J22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="U6" sqref="U6"/>
+      <selection activeCell="J20" sqref="J20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/measurements.xlsx
+++ b/measurements.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JELENA\FAKS\3.godina\6.semestar\zavrsni\zavrsni-rad\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35A98676-C670-4D90-9FF7-132089BC189C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D1F3AD1-BB7D-486B-B3FB-39243635C0B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{59AAA055-06BE-4089-858D-5DFDDCE26241}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="44">
   <si>
     <t>d/cm</t>
   </si>
@@ -53,13 +53,127 @@
   </si>
   <si>
     <t>f/Hz</t>
+  </si>
+  <si>
+    <t>FILE</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>b</t>
+  </si>
+  <si>
+    <t>c</t>
+  </si>
+  <si>
+    <t>č</t>
+  </si>
+  <si>
+    <t>ć</t>
+  </si>
+  <si>
+    <t>đ</t>
+  </si>
+  <si>
+    <t>d</t>
+  </si>
+  <si>
+    <t>e</t>
+  </si>
+  <si>
+    <t>f</t>
+  </si>
+  <si>
+    <t>g</t>
+  </si>
+  <si>
+    <t>h</t>
+  </si>
+  <si>
+    <t>i</t>
+  </si>
+  <si>
+    <t>j</t>
+  </si>
+  <si>
+    <t>k</t>
+  </si>
+  <si>
+    <t>l</t>
+  </si>
+  <si>
+    <t>m</t>
+  </si>
+  <si>
+    <t>n</t>
+  </si>
+  <si>
+    <t>o</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>q</t>
+  </si>
+  <si>
+    <t>r</t>
+  </si>
+  <si>
+    <t>s</t>
+  </si>
+  <si>
+    <t>t</t>
+  </si>
+  <si>
+    <t>u</t>
+  </si>
+  <si>
+    <t>v</t>
+  </si>
+  <si>
+    <t>w</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>y</t>
+  </si>
+  <si>
+    <t>z</t>
+  </si>
+  <si>
+    <t>ž</t>
+  </si>
+  <si>
+    <t>š</t>
+  </si>
+  <si>
+    <t>?</t>
+  </si>
+  <si>
+    <t>puno</t>
+  </si>
+  <si>
+    <t>svega</t>
+  </si>
+  <si>
+    <t>svasta</t>
+  </si>
+  <si>
+    <t>nesto</t>
+  </si>
+  <si>
+    <t>738~</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -75,8 +189,23 @@
       <charset val="238"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -92,6 +221,24 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -123,7 +270,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -138,6 +285,25 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1584,10 +1750,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33AA949A-4943-4AB9-B017-E41F54B3B033}">
-  <dimension ref="F1:J22"/>
+  <dimension ref="F1:P56"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J20" sqref="J20"/>
+    <sheetView tabSelected="1" topLeftCell="B31" workbookViewId="0">
+      <selection activeCell="O56" sqref="O56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1799,7 +1965,7 @@
         <v>-41</v>
       </c>
     </row>
-    <row r="17" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="17" spans="6:15" x14ac:dyDescent="0.3">
       <c r="F17">
         <v>15</v>
       </c>
@@ -1810,7 +1976,7 @@
         <v>-31</v>
       </c>
     </row>
-    <row r="18" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="18" spans="6:15" x14ac:dyDescent="0.3">
       <c r="F18">
         <v>16</v>
       </c>
@@ -1821,7 +1987,7 @@
         <v>-47</v>
       </c>
     </row>
-    <row r="19" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="19" spans="6:15" x14ac:dyDescent="0.3">
       <c r="F19">
         <v>17</v>
       </c>
@@ -1832,7 +1998,7 @@
         <v>-42</v>
       </c>
     </row>
-    <row r="20" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="20" spans="6:15" x14ac:dyDescent="0.3">
       <c r="F20">
         <v>18</v>
       </c>
@@ -1843,7 +2009,7 @@
         <v>-36</v>
       </c>
     </row>
-    <row r="21" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="21" spans="6:15" x14ac:dyDescent="0.3">
       <c r="F21">
         <v>19</v>
       </c>
@@ -1854,7 +2020,7 @@
         <v>-34</v>
       </c>
     </row>
-    <row r="22" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="22" spans="6:15" x14ac:dyDescent="0.3">
       <c r="F22">
         <v>20</v>
       </c>
@@ -1863,6 +2029,462 @@
       </c>
       <c r="H22" s="5">
         <v>-40</v>
+      </c>
+    </row>
+    <row r="24" spans="6:15" x14ac:dyDescent="0.3">
+      <c r="M24" s="1"/>
+      <c r="N24" s="1"/>
+      <c r="O24" s="1"/>
+    </row>
+    <row r="25" spans="6:15" x14ac:dyDescent="0.3">
+      <c r="L25" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="M25" s="7">
+        <v>1</v>
+      </c>
+      <c r="N25" s="7">
+        <v>2</v>
+      </c>
+      <c r="O25" s="7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26" spans="6:15" x14ac:dyDescent="0.3">
+      <c r="L26" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="M26" s="1">
+        <v>230</v>
+      </c>
+      <c r="N26" s="9">
+        <v>474</v>
+      </c>
+      <c r="O26">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="27" spans="6:15" x14ac:dyDescent="0.3">
+      <c r="L27" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="M27" s="1">
+        <v>48</v>
+      </c>
+      <c r="N27" s="9">
+        <v>906</v>
+      </c>
+      <c r="O27">
+        <v>1880</v>
+      </c>
+    </row>
+    <row r="28" spans="6:15" x14ac:dyDescent="0.3">
+      <c r="L28" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="M28" s="8">
+        <v>49</v>
+      </c>
+      <c r="N28" t="s">
+        <v>38</v>
+      </c>
+      <c r="O28" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="29" spans="6:15" x14ac:dyDescent="0.3">
+      <c r="L29" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M29" s="8">
+        <v>590</v>
+      </c>
+      <c r="N29" t="s">
+        <v>38</v>
+      </c>
+      <c r="O29" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="30" spans="6:15" x14ac:dyDescent="0.3">
+      <c r="L30" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M30" s="1">
+        <v>49</v>
+      </c>
+      <c r="N30">
+        <v>148</v>
+      </c>
+      <c r="O30" s="9">
+        <v>1094</v>
+      </c>
+    </row>
+    <row r="31" spans="6:15" x14ac:dyDescent="0.3">
+      <c r="L31" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="M31" s="1">
+        <v>48</v>
+      </c>
+      <c r="N31">
+        <v>150</v>
+      </c>
+      <c r="O31" s="9">
+        <v>991</v>
+      </c>
+    </row>
+    <row r="32" spans="6:15" x14ac:dyDescent="0.3">
+      <c r="L32" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="M32" s="8">
+        <v>92</v>
+      </c>
+      <c r="N32" t="s">
+        <v>38</v>
+      </c>
+      <c r="O32" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="33" spans="12:16" x14ac:dyDescent="0.3">
+      <c r="L33" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="M33" s="1">
+        <v>48</v>
+      </c>
+      <c r="N33">
+        <v>145</v>
+      </c>
+      <c r="O33" s="9">
+        <v>1479</v>
+      </c>
+    </row>
+    <row r="34" spans="12:16" x14ac:dyDescent="0.3">
+      <c r="L34" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="M34" s="1">
+        <v>45</v>
+      </c>
+      <c r="N34" s="1">
+        <v>676</v>
+      </c>
+      <c r="O34">
+        <v>1236</v>
+      </c>
+      <c r="P34" s="9">
+        <v>1961</v>
+      </c>
+    </row>
+    <row r="35" spans="12:16" x14ac:dyDescent="0.3">
+      <c r="L35" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="M35" s="8">
+        <v>49</v>
+      </c>
+      <c r="N35">
+        <v>492</v>
+      </c>
+      <c r="O35" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="36" spans="12:16" x14ac:dyDescent="0.3">
+      <c r="L36" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="M36" s="1">
+        <v>44</v>
+      </c>
+      <c r="N36">
+        <v>145</v>
+      </c>
+      <c r="O36" s="9">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="37" spans="12:16" x14ac:dyDescent="0.3">
+      <c r="L37" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="M37" s="1">
+        <v>45</v>
+      </c>
+      <c r="N37">
+        <v>144</v>
+      </c>
+      <c r="O37" s="9">
+        <v>1448</v>
+      </c>
+    </row>
+    <row r="38" spans="12:16" x14ac:dyDescent="0.3">
+      <c r="L38" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="M38" s="1">
+        <v>48</v>
+      </c>
+      <c r="N38" s="9">
+        <v>502</v>
+      </c>
+      <c r="O38">
+        <v>1447</v>
+      </c>
+    </row>
+    <row r="39" spans="12:16" x14ac:dyDescent="0.3">
+      <c r="L39" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="M39" s="1">
+        <v>49</v>
+      </c>
+      <c r="N39">
+        <v>505</v>
+      </c>
+      <c r="O39" s="9">
+        <v>1316</v>
+      </c>
+    </row>
+    <row r="40" spans="12:16" x14ac:dyDescent="0.3">
+      <c r="L40" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="M40" s="8">
+        <v>602</v>
+      </c>
+      <c r="N40" t="s">
+        <v>38</v>
+      </c>
+      <c r="O40" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="41" spans="12:16" x14ac:dyDescent="0.3">
+      <c r="L41" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="M41" s="8">
+        <v>49</v>
+      </c>
+      <c r="N41">
+        <v>359</v>
+      </c>
+      <c r="O41">
+        <v>947</v>
+      </c>
+    </row>
+    <row r="42" spans="12:16" x14ac:dyDescent="0.3">
+      <c r="L42" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="M42" s="8">
+        <v>49</v>
+      </c>
+      <c r="N42">
+        <v>475</v>
+      </c>
+      <c r="O42">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="43" spans="12:16" x14ac:dyDescent="0.3">
+      <c r="L43" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="M43" s="1">
+        <v>48</v>
+      </c>
+      <c r="N43" s="9">
+        <v>501</v>
+      </c>
+      <c r="O43">
+        <v>1464</v>
+      </c>
+    </row>
+    <row r="44" spans="12:16" x14ac:dyDescent="0.3">
+      <c r="L44" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="M44" s="8">
+        <v>49</v>
+      </c>
+      <c r="N44">
+        <v>88</v>
+      </c>
+      <c r="O44">
+        <v>903</v>
+      </c>
+    </row>
+    <row r="45" spans="12:16" x14ac:dyDescent="0.3">
+      <c r="L45" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="M45" s="1">
+        <v>48</v>
+      </c>
+      <c r="N45" s="9">
+        <v>501</v>
+      </c>
+      <c r="O45" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="46" spans="12:16" x14ac:dyDescent="0.3">
+      <c r="L46" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="M46" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="N46" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="O46" s="11"/>
+      <c r="P46" s="11"/>
+    </row>
+    <row r="47" spans="12:16" x14ac:dyDescent="0.3">
+      <c r="L47" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="M47" s="10">
+        <v>78</v>
+      </c>
+      <c r="N47" s="12">
+        <v>145</v>
+      </c>
+      <c r="O47" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="P47" s="11"/>
+    </row>
+    <row r="48" spans="12:16" x14ac:dyDescent="0.3">
+      <c r="L48" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="M48" s="1">
+        <v>48</v>
+      </c>
+      <c r="N48">
+        <v>592</v>
+      </c>
+      <c r="O48" s="9">
+        <v>1302</v>
+      </c>
+    </row>
+    <row r="49" spans="12:16" x14ac:dyDescent="0.3">
+      <c r="L49" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="M49" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="N49" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="O49" s="11"/>
+      <c r="P49" s="11"/>
+    </row>
+    <row r="50" spans="12:16" x14ac:dyDescent="0.3">
+      <c r="L50" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="M50" s="14">
+        <v>238</v>
+      </c>
+      <c r="N50" s="13">
+        <v>678</v>
+      </c>
+      <c r="O50" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="P50" s="13"/>
+    </row>
+    <row r="51" spans="12:16" x14ac:dyDescent="0.3">
+      <c r="L51" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="M51" s="1">
+        <v>44</v>
+      </c>
+      <c r="N51">
+        <v>678</v>
+      </c>
+      <c r="O51" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="52" spans="12:16" x14ac:dyDescent="0.3">
+      <c r="L52" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="M52" s="1">
+        <v>48</v>
+      </c>
+      <c r="N52" s="9">
+        <v>1182</v>
+      </c>
+    </row>
+    <row r="53" spans="12:16" x14ac:dyDescent="0.3">
+      <c r="L53" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="M53" s="1">
+        <v>48</v>
+      </c>
+      <c r="N53">
+        <v>145</v>
+      </c>
+      <c r="O53">
+        <v>456</v>
+      </c>
+      <c r="P53" s="9">
+        <v>907</v>
+      </c>
+    </row>
+    <row r="54" spans="12:16" x14ac:dyDescent="0.3">
+      <c r="L54" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="M54" s="1">
+        <v>48</v>
+      </c>
+      <c r="N54" t="s">
+        <v>38</v>
+      </c>
+      <c r="O54" s="9">
+        <v>1873</v>
+      </c>
+    </row>
+    <row r="55" spans="12:16" x14ac:dyDescent="0.3">
+      <c r="L55" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="M55" s="8">
+        <v>49</v>
+      </c>
+      <c r="N55" t="s">
+        <v>38</v>
+      </c>
+      <c r="O55">
+        <v>1468</v>
+      </c>
+    </row>
+    <row r="56" spans="12:16" x14ac:dyDescent="0.3">
+      <c r="L56" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="M56" s="1">
+        <v>84</v>
+      </c>
+      <c r="N56">
+        <v>500</v>
+      </c>
+      <c r="O56">
+        <v>908</v>
       </c>
     </row>
   </sheetData>

--- a/measurements.xlsx
+++ b/measurements.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JELENA\FAKS\3.godina\6.semestar\zavrsni\zavrsni-rad\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D1F3AD1-BB7D-486B-B3FB-39243635C0B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F77B03FE-CBCC-475C-AE2F-098ABEFB29C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{59AAA055-06BE-4089-858D-5DFDDCE26241}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="46">
   <si>
     <t>d/cm</t>
   </si>
@@ -167,6 +167,12 @@
   </si>
   <si>
     <t>738~</t>
+  </si>
+  <si>
+    <t>super!</t>
+  </si>
+  <si>
+    <t>NE VALJA</t>
   </si>
 </sst>
 </file>
@@ -205,7 +211,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -242,6 +248,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -270,7 +282,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -301,11 +313,18 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1750,10 +1769,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33AA949A-4943-4AB9-B017-E41F54B3B033}">
-  <dimension ref="F1:P56"/>
+  <dimension ref="F1:Q56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B31" workbookViewId="0">
-      <selection activeCell="O56" sqref="O56"/>
+    <sheetView tabSelected="1" topLeftCell="B30" workbookViewId="0">
+      <selection activeCell="Q47" sqref="Q47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1965,7 +1984,7 @@
         <v>-41</v>
       </c>
     </row>
-    <row r="17" spans="6:15" x14ac:dyDescent="0.3">
+    <row r="17" spans="6:16" x14ac:dyDescent="0.3">
       <c r="F17">
         <v>15</v>
       </c>
@@ -1976,7 +1995,7 @@
         <v>-31</v>
       </c>
     </row>
-    <row r="18" spans="6:15" x14ac:dyDescent="0.3">
+    <row r="18" spans="6:16" x14ac:dyDescent="0.3">
       <c r="F18">
         <v>16</v>
       </c>
@@ -1987,7 +2006,7 @@
         <v>-47</v>
       </c>
     </row>
-    <row r="19" spans="6:15" x14ac:dyDescent="0.3">
+    <row r="19" spans="6:16" x14ac:dyDescent="0.3">
       <c r="F19">
         <v>17</v>
       </c>
@@ -1998,7 +2017,7 @@
         <v>-42</v>
       </c>
     </row>
-    <row r="20" spans="6:15" x14ac:dyDescent="0.3">
+    <row r="20" spans="6:16" x14ac:dyDescent="0.3">
       <c r="F20">
         <v>18</v>
       </c>
@@ -2009,7 +2028,7 @@
         <v>-36</v>
       </c>
     </row>
-    <row r="21" spans="6:15" x14ac:dyDescent="0.3">
+    <row r="21" spans="6:16" x14ac:dyDescent="0.3">
       <c r="F21">
         <v>19</v>
       </c>
@@ -2020,7 +2039,7 @@
         <v>-34</v>
       </c>
     </row>
-    <row r="22" spans="6:15" x14ac:dyDescent="0.3">
+    <row r="22" spans="6:16" x14ac:dyDescent="0.3">
       <c r="F22">
         <v>20</v>
       </c>
@@ -2031,12 +2050,12 @@
         <v>-40</v>
       </c>
     </row>
-    <row r="24" spans="6:15" x14ac:dyDescent="0.3">
+    <row r="24" spans="6:16" x14ac:dyDescent="0.3">
       <c r="M24" s="1"/>
       <c r="N24" s="1"/>
       <c r="O24" s="1"/>
     </row>
-    <row r="25" spans="6:15" x14ac:dyDescent="0.3">
+    <row r="25" spans="6:16" x14ac:dyDescent="0.3">
       <c r="L25" s="6" t="s">
         <v>6</v>
       </c>
@@ -2050,7 +2069,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="26" spans="6:15" x14ac:dyDescent="0.3">
+    <row r="26" spans="6:16" x14ac:dyDescent="0.3">
       <c r="L26" s="1" t="s">
         <v>7</v>
       </c>
@@ -2064,7 +2083,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="27" spans="6:15" x14ac:dyDescent="0.3">
+    <row r="27" spans="6:16" x14ac:dyDescent="0.3">
       <c r="L27" s="1" t="s">
         <v>8</v>
       </c>
@@ -2078,7 +2097,7 @@
         <v>1880</v>
       </c>
     </row>
-    <row r="28" spans="6:15" x14ac:dyDescent="0.3">
+    <row r="28" spans="6:16" x14ac:dyDescent="0.3">
       <c r="L28" s="1" t="s">
         <v>9</v>
       </c>
@@ -2092,7 +2111,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="29" spans="6:15" x14ac:dyDescent="0.3">
+    <row r="29" spans="6:16" x14ac:dyDescent="0.3">
       <c r="L29" s="1" t="s">
         <v>10</v>
       </c>
@@ -2105,8 +2124,11 @@
       <c r="O29" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="30" spans="6:15" x14ac:dyDescent="0.3">
+      <c r="P29" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="30" spans="6:16" x14ac:dyDescent="0.3">
       <c r="L30" s="1" t="s">
         <v>11</v>
       </c>
@@ -2120,7 +2142,7 @@
         <v>1094</v>
       </c>
     </row>
-    <row r="31" spans="6:15" x14ac:dyDescent="0.3">
+    <row r="31" spans="6:16" x14ac:dyDescent="0.3">
       <c r="L31" s="1" t="s">
         <v>13</v>
       </c>
@@ -2134,7 +2156,7 @@
         <v>991</v>
       </c>
     </row>
-    <row r="32" spans="6:15" x14ac:dyDescent="0.3">
+    <row r="32" spans="6:16" x14ac:dyDescent="0.3">
       <c r="L32" s="1" t="s">
         <v>12</v>
       </c>
@@ -2148,7 +2170,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="33" spans="12:16" x14ac:dyDescent="0.3">
+    <row r="33" spans="12:17" x14ac:dyDescent="0.3">
       <c r="L33" s="1" t="s">
         <v>14</v>
       </c>
@@ -2162,7 +2184,7 @@
         <v>1479</v>
       </c>
     </row>
-    <row r="34" spans="12:16" x14ac:dyDescent="0.3">
+    <row r="34" spans="12:17" x14ac:dyDescent="0.3">
       <c r="L34" s="1" t="s">
         <v>15</v>
       </c>
@@ -2179,7 +2201,7 @@
         <v>1961</v>
       </c>
     </row>
-    <row r="35" spans="12:16" x14ac:dyDescent="0.3">
+    <row r="35" spans="12:17" x14ac:dyDescent="0.3">
       <c r="L35" s="1" t="s">
         <v>16</v>
       </c>
@@ -2193,7 +2215,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="36" spans="12:16" x14ac:dyDescent="0.3">
+    <row r="36" spans="12:17" x14ac:dyDescent="0.3">
       <c r="L36" s="1" t="s">
         <v>17</v>
       </c>
@@ -2207,7 +2229,7 @@
         <v>840</v>
       </c>
     </row>
-    <row r="37" spans="12:16" x14ac:dyDescent="0.3">
+    <row r="37" spans="12:17" x14ac:dyDescent="0.3">
       <c r="L37" s="1" t="s">
         <v>18</v>
       </c>
@@ -2221,7 +2243,7 @@
         <v>1448</v>
       </c>
     </row>
-    <row r="38" spans="12:16" x14ac:dyDescent="0.3">
+    <row r="38" spans="12:17" x14ac:dyDescent="0.3">
       <c r="L38" s="1" t="s">
         <v>19</v>
       </c>
@@ -2235,7 +2257,7 @@
         <v>1447</v>
       </c>
     </row>
-    <row r="39" spans="12:16" x14ac:dyDescent="0.3">
+    <row r="39" spans="12:17" x14ac:dyDescent="0.3">
       <c r="L39" s="1" t="s">
         <v>20</v>
       </c>
@@ -2249,7 +2271,7 @@
         <v>1316</v>
       </c>
     </row>
-    <row r="40" spans="12:16" x14ac:dyDescent="0.3">
+    <row r="40" spans="12:17" x14ac:dyDescent="0.3">
       <c r="L40" s="1" t="s">
         <v>21</v>
       </c>
@@ -2262,8 +2284,11 @@
       <c r="O40" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="41" spans="12:16" x14ac:dyDescent="0.3">
+      <c r="P40" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="41" spans="12:17" x14ac:dyDescent="0.3">
       <c r="L41" s="1" t="s">
         <v>22</v>
       </c>
@@ -2277,7 +2302,7 @@
         <v>947</v>
       </c>
     </row>
-    <row r="42" spans="12:16" x14ac:dyDescent="0.3">
+    <row r="42" spans="12:17" x14ac:dyDescent="0.3">
       <c r="L42" s="1" t="s">
         <v>23</v>
       </c>
@@ -2291,7 +2316,7 @@
         <v>690</v>
       </c>
     </row>
-    <row r="43" spans="12:16" x14ac:dyDescent="0.3">
+    <row r="43" spans="12:17" x14ac:dyDescent="0.3">
       <c r="L43" s="1" t="s">
         <v>24</v>
       </c>
@@ -2305,7 +2330,7 @@
         <v>1464</v>
       </c>
     </row>
-    <row r="44" spans="12:16" x14ac:dyDescent="0.3">
+    <row r="44" spans="12:17" x14ac:dyDescent="0.3">
       <c r="L44" s="1" t="s">
         <v>25</v>
       </c>
@@ -2319,7 +2344,7 @@
         <v>903</v>
       </c>
     </row>
-    <row r="45" spans="12:16" x14ac:dyDescent="0.3">
+    <row r="45" spans="12:17" x14ac:dyDescent="0.3">
       <c r="L45" s="1" t="s">
         <v>26</v>
       </c>
@@ -2333,7 +2358,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="46" spans="12:16" x14ac:dyDescent="0.3">
+    <row r="46" spans="12:17" x14ac:dyDescent="0.3">
       <c r="L46" s="10" t="s">
         <v>27</v>
       </c>
@@ -2346,22 +2371,25 @@
       <c r="O46" s="11"/>
       <c r="P46" s="11"/>
     </row>
-    <row r="47" spans="12:16" x14ac:dyDescent="0.3">
-      <c r="L47" s="10" t="s">
+    <row r="47" spans="12:17" x14ac:dyDescent="0.3">
+      <c r="L47" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="M47" s="10">
+      <c r="M47" s="15">
         <v>78</v>
       </c>
-      <c r="N47" s="12">
+      <c r="N47" s="16">
         <v>145</v>
       </c>
-      <c r="O47" s="11" t="s">
+      <c r="O47" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="P47" s="11"/>
-    </row>
-    <row r="48" spans="12:16" x14ac:dyDescent="0.3">
+      <c r="P47" s="17"/>
+      <c r="Q47" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="48" spans="12:17" x14ac:dyDescent="0.3">
       <c r="L48" s="1" t="s">
         <v>37</v>
       </c>
@@ -2389,19 +2417,19 @@
       <c r="P49" s="11"/>
     </row>
     <row r="50" spans="12:16" x14ac:dyDescent="0.3">
-      <c r="L50" s="10" t="s">
+      <c r="L50" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="M50" s="14">
+      <c r="M50" s="13">
         <v>238</v>
       </c>
-      <c r="N50" s="13">
+      <c r="N50" s="12">
         <v>678</v>
       </c>
-      <c r="O50" s="13" t="s">
+      <c r="O50" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="P50" s="13"/>
+      <c r="P50" s="12"/>
     </row>
     <row r="51" spans="12:16" x14ac:dyDescent="0.3">
       <c r="L51" s="1" t="s">

--- a/measurements.xlsx
+++ b/measurements.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JELENA\FAKS\3.godina\6.semestar\zavrsni\zavrsni-rad\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F77B03FE-CBCC-475C-AE2F-098ABEFB29C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{872286AF-3008-492E-B7BE-FC1D6555916A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{59AAA055-06BE-4089-858D-5DFDDCE26241}"/>
   </bookViews>
@@ -211,7 +211,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -254,6 +254,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -282,7 +288,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -325,6 +331,9 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1771,8 +1780,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33AA949A-4943-4AB9-B017-E41F54B3B033}">
   <dimension ref="F1:Q56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B30" workbookViewId="0">
-      <selection activeCell="Q47" sqref="Q47"/>
+    <sheetView tabSelected="1" topLeftCell="B25" workbookViewId="0">
+      <selection activeCell="P36" sqref="P36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2372,7 +2381,7 @@
       <c r="P46" s="11"/>
     </row>
     <row r="47" spans="12:17" x14ac:dyDescent="0.3">
-      <c r="L47" s="15" t="s">
+      <c r="L47" s="18" t="s">
         <v>28</v>
       </c>
       <c r="M47" s="15">

--- a/measurements.xlsx
+++ b/measurements.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JELENA\FAKS\3.godina\6.semestar\zavrsni\zavrsni-rad\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{872286AF-3008-492E-B7BE-FC1D6555916A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF22FCFE-FE9E-4A70-ADD3-B26DF038DA40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{59AAA055-06BE-4089-858D-5DFDDCE26241}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="49">
   <si>
     <t>d/cm</t>
   </si>
@@ -173,6 +173,15 @@
   </si>
   <si>
     <t>NE VALJA</t>
+  </si>
+  <si>
+    <t>bez filtra</t>
+  </si>
+  <si>
+    <t>s filtrom</t>
+  </si>
+  <si>
+    <t>trljbrlj</t>
   </si>
 </sst>
 </file>
@@ -211,7 +220,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -260,6 +269,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -288,7 +303,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -332,6 +347,10 @@
     <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1778,10 +1797,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33AA949A-4943-4AB9-B017-E41F54B3B033}">
-  <dimension ref="F1:Q56"/>
+  <dimension ref="F1:W56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B25" workbookViewId="0">
-      <selection activeCell="P36" sqref="P36"/>
+    <sheetView tabSelected="1" topLeftCell="E21" workbookViewId="0">
+      <selection activeCell="I30" sqref="I30:I33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1993,7 +2012,7 @@
         <v>-41</v>
       </c>
     </row>
-    <row r="17" spans="6:16" x14ac:dyDescent="0.3">
+    <row r="17" spans="6:23" x14ac:dyDescent="0.3">
       <c r="F17">
         <v>15</v>
       </c>
@@ -2004,7 +2023,7 @@
         <v>-31</v>
       </c>
     </row>
-    <row r="18" spans="6:16" x14ac:dyDescent="0.3">
+    <row r="18" spans="6:23" x14ac:dyDescent="0.3">
       <c r="F18">
         <v>16</v>
       </c>
@@ -2015,7 +2034,7 @@
         <v>-47</v>
       </c>
     </row>
-    <row r="19" spans="6:16" x14ac:dyDescent="0.3">
+    <row r="19" spans="6:23" x14ac:dyDescent="0.3">
       <c r="F19">
         <v>17</v>
       </c>
@@ -2026,7 +2045,7 @@
         <v>-42</v>
       </c>
     </row>
-    <row r="20" spans="6:16" x14ac:dyDescent="0.3">
+    <row r="20" spans="6:23" x14ac:dyDescent="0.3">
       <c r="F20">
         <v>18</v>
       </c>
@@ -2037,7 +2056,7 @@
         <v>-36</v>
       </c>
     </row>
-    <row r="21" spans="6:16" x14ac:dyDescent="0.3">
+    <row r="21" spans="6:23" x14ac:dyDescent="0.3">
       <c r="F21">
         <v>19</v>
       </c>
@@ -2048,7 +2067,7 @@
         <v>-34</v>
       </c>
     </row>
-    <row r="22" spans="6:16" x14ac:dyDescent="0.3">
+    <row r="22" spans="6:23" x14ac:dyDescent="0.3">
       <c r="F22">
         <v>20</v>
       </c>
@@ -2059,12 +2078,20 @@
         <v>-40</v>
       </c>
     </row>
-    <row r="24" spans="6:16" x14ac:dyDescent="0.3">
+    <row r="23" spans="6:23" x14ac:dyDescent="0.3">
+      <c r="M23" t="s">
+        <v>46</v>
+      </c>
+      <c r="T23" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="24" spans="6:23" x14ac:dyDescent="0.3">
       <c r="M24" s="1"/>
       <c r="N24" s="1"/>
       <c r="O24" s="1"/>
     </row>
-    <row r="25" spans="6:16" x14ac:dyDescent="0.3">
+    <row r="25" spans="6:23" x14ac:dyDescent="0.3">
       <c r="L25" s="6" t="s">
         <v>6</v>
       </c>
@@ -2077,8 +2104,20 @@
       <c r="O25" s="7">
         <v>3</v>
       </c>
-    </row>
-    <row r="26" spans="6:16" x14ac:dyDescent="0.3">
+      <c r="S25" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="T25" s="7">
+        <v>1</v>
+      </c>
+      <c r="U25" s="7">
+        <v>2</v>
+      </c>
+      <c r="V25" s="7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26" spans="6:23" x14ac:dyDescent="0.3">
       <c r="L26" s="1" t="s">
         <v>7</v>
       </c>
@@ -2091,8 +2130,14 @@
       <c r="O26">
         <v>645</v>
       </c>
-    </row>
-    <row r="27" spans="6:16" x14ac:dyDescent="0.3">
+      <c r="S26" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="T26">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="27" spans="6:23" x14ac:dyDescent="0.3">
       <c r="L27" s="1" t="s">
         <v>8</v>
       </c>
@@ -2105,8 +2150,20 @@
       <c r="O27">
         <v>1880</v>
       </c>
-    </row>
-    <row r="28" spans="6:16" x14ac:dyDescent="0.3">
+      <c r="S27" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="T27">
+        <v>53</v>
+      </c>
+      <c r="U27" s="9">
+        <v>907</v>
+      </c>
+      <c r="V27">
+        <v>1873</v>
+      </c>
+    </row>
+    <row r="28" spans="6:23" x14ac:dyDescent="0.3">
       <c r="L28" s="1" t="s">
         <v>9</v>
       </c>
@@ -2119,8 +2176,26 @@
       <c r="O28" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="29" spans="6:16" x14ac:dyDescent="0.3">
+      <c r="S28" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="T28">
+        <v>862</v>
+      </c>
+    </row>
+    <row r="29" spans="6:23" x14ac:dyDescent="0.3">
+      <c r="G29" s="20">
+        <v>137</v>
+      </c>
+      <c r="H29" s="20">
+        <v>190</v>
+      </c>
+      <c r="I29" s="20">
+        <v>490</v>
+      </c>
+      <c r="J29" s="20">
+        <v>1243</v>
+      </c>
       <c r="L29" s="1" t="s">
         <v>10</v>
       </c>
@@ -2136,8 +2211,17 @@
       <c r="P29" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="30" spans="6:16" x14ac:dyDescent="0.3">
+      <c r="S29" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30" spans="6:23" x14ac:dyDescent="0.3">
+      <c r="I30" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J30" s="1" t="s">
+        <v>11</v>
+      </c>
       <c r="L30" s="1" t="s">
         <v>11</v>
       </c>
@@ -2150,8 +2234,20 @@
       <c r="O30" s="9">
         <v>1094</v>
       </c>
-    </row>
-    <row r="31" spans="6:16" x14ac:dyDescent="0.3">
+      <c r="S30" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="T30">
+        <v>1094</v>
+      </c>
+    </row>
+    <row r="31" spans="6:23" x14ac:dyDescent="0.3">
+      <c r="I31" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="J31" s="1" t="s">
+        <v>10</v>
+      </c>
       <c r="L31" s="1" t="s">
         <v>13</v>
       </c>
@@ -2164,8 +2260,20 @@
       <c r="O31" s="9">
         <v>991</v>
       </c>
-    </row>
-    <row r="32" spans="6:16" x14ac:dyDescent="0.3">
+      <c r="S31" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="T31">
+        <v>991</v>
+      </c>
+    </row>
+    <row r="32" spans="6:23" x14ac:dyDescent="0.3">
+      <c r="I32" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="J32" s="1" t="s">
+        <v>13</v>
+      </c>
       <c r="L32" s="1" t="s">
         <v>12</v>
       </c>
@@ -2178,8 +2286,29 @@
       <c r="O32" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="33" spans="12:17" x14ac:dyDescent="0.3">
+      <c r="S32" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="T32">
+        <v>431</v>
+      </c>
+      <c r="U32">
+        <v>903</v>
+      </c>
+      <c r="V32">
+        <v>1400</v>
+      </c>
+      <c r="W32" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="33" spans="9:22" x14ac:dyDescent="0.3">
+      <c r="I33" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="J33" s="1" t="s">
+        <v>14</v>
+      </c>
       <c r="L33" s="1" t="s">
         <v>14</v>
       </c>
@@ -2192,8 +2321,17 @@
       <c r="O33" s="9">
         <v>1479</v>
       </c>
-    </row>
-    <row r="34" spans="12:17" x14ac:dyDescent="0.3">
+      <c r="S33" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="T33">
+        <v>1479</v>
+      </c>
+    </row>
+    <row r="34" spans="9:22" x14ac:dyDescent="0.3">
+      <c r="J34" s="1" t="s">
+        <v>15</v>
+      </c>
       <c r="L34" s="1" t="s">
         <v>15</v>
       </c>
@@ -2209,8 +2347,23 @@
       <c r="P34" s="9">
         <v>1961</v>
       </c>
-    </row>
-    <row r="35" spans="12:17" x14ac:dyDescent="0.3">
+      <c r="S34" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="T34">
+        <v>660</v>
+      </c>
+      <c r="U34" s="19">
+        <v>1224</v>
+      </c>
+      <c r="V34" s="9">
+        <v>1961</v>
+      </c>
+    </row>
+    <row r="35" spans="9:22" x14ac:dyDescent="0.3">
+      <c r="J35" s="1" t="s">
+        <v>16</v>
+      </c>
       <c r="L35" s="1" t="s">
         <v>16</v>
       </c>
@@ -2223,8 +2376,23 @@
       <c r="O35" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="36" spans="12:17" x14ac:dyDescent="0.3">
+      <c r="S35" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="T35">
+        <v>500</v>
+      </c>
+      <c r="U35" s="9">
+        <v>855</v>
+      </c>
+      <c r="V35">
+        <v>1092</v>
+      </c>
+    </row>
+    <row r="36" spans="9:22" x14ac:dyDescent="0.3">
+      <c r="J36" s="1" t="s">
+        <v>18</v>
+      </c>
       <c r="L36" s="1" t="s">
         <v>17</v>
       </c>
@@ -2237,8 +2405,17 @@
       <c r="O36" s="9">
         <v>840</v>
       </c>
-    </row>
-    <row r="37" spans="12:17" x14ac:dyDescent="0.3">
+      <c r="S36" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="T36">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="37" spans="9:22" x14ac:dyDescent="0.3">
+      <c r="J37" s="1" t="s">
+        <v>20</v>
+      </c>
       <c r="L37" s="1" t="s">
         <v>18</v>
       </c>
@@ -2251,8 +2428,17 @@
       <c r="O37" s="9">
         <v>1448</v>
       </c>
-    </row>
-    <row r="38" spans="12:17" x14ac:dyDescent="0.3">
+      <c r="S37" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T37">
+        <v>1448</v>
+      </c>
+    </row>
+    <row r="38" spans="9:22" x14ac:dyDescent="0.3">
+      <c r="J38" s="1" t="s">
+        <v>21</v>
+      </c>
       <c r="L38" s="1" t="s">
         <v>19</v>
       </c>
@@ -2265,8 +2451,17 @@
       <c r="O38">
         <v>1447</v>
       </c>
-    </row>
-    <row r="39" spans="12:17" x14ac:dyDescent="0.3">
+      <c r="S38" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="T38">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="39" spans="9:22" x14ac:dyDescent="0.3">
+      <c r="J39" s="1" t="s">
+        <v>37</v>
+      </c>
       <c r="L39" s="1" t="s">
         <v>20</v>
       </c>
@@ -2279,8 +2474,17 @@
       <c r="O39" s="9">
         <v>1316</v>
       </c>
-    </row>
-    <row r="40" spans="12:17" x14ac:dyDescent="0.3">
+      <c r="S39" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="T39">
+        <v>1316</v>
+      </c>
+    </row>
+    <row r="40" spans="9:22" x14ac:dyDescent="0.3">
+      <c r="J40" s="1" t="s">
+        <v>32</v>
+      </c>
       <c r="L40" s="1" t="s">
         <v>21</v>
       </c>
@@ -2296,8 +2500,17 @@
       <c r="P40" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="41" spans="12:17" x14ac:dyDescent="0.3">
+      <c r="S40" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="T40">
+        <v>1313</v>
+      </c>
+      <c r="U40">
+        <v>1941</v>
+      </c>
+    </row>
+    <row r="41" spans="9:22" x14ac:dyDescent="0.3">
       <c r="L41" s="1" t="s">
         <v>22</v>
       </c>
@@ -2310,8 +2523,14 @@
       <c r="O41">
         <v>947</v>
       </c>
-    </row>
-    <row r="42" spans="12:17" x14ac:dyDescent="0.3">
+      <c r="S41" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="T41">
+        <v>948</v>
+      </c>
+    </row>
+    <row r="42" spans="9:22" x14ac:dyDescent="0.3">
       <c r="L42" s="1" t="s">
         <v>23</v>
       </c>
@@ -2324,8 +2543,17 @@
       <c r="O42">
         <v>690</v>
       </c>
-    </row>
-    <row r="43" spans="12:17" x14ac:dyDescent="0.3">
+      <c r="S42" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="T42">
+        <v>49</v>
+      </c>
+      <c r="U42">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="43" spans="9:22" x14ac:dyDescent="0.3">
       <c r="L43" s="1" t="s">
         <v>24</v>
       </c>
@@ -2338,8 +2566,14 @@
       <c r="O43">
         <v>1464</v>
       </c>
-    </row>
-    <row r="44" spans="12:17" x14ac:dyDescent="0.3">
+      <c r="S43" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="T43">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="44" spans="9:22" x14ac:dyDescent="0.3">
       <c r="L44" s="1" t="s">
         <v>25</v>
       </c>
@@ -2352,8 +2586,14 @@
       <c r="O44">
         <v>903</v>
       </c>
-    </row>
-    <row r="45" spans="12:17" x14ac:dyDescent="0.3">
+      <c r="S44" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="T44">
+        <v>905</v>
+      </c>
+    </row>
+    <row r="45" spans="9:22" x14ac:dyDescent="0.3">
       <c r="L45" s="1" t="s">
         <v>26</v>
       </c>
@@ -2366,8 +2606,14 @@
       <c r="O45" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="46" spans="12:17" x14ac:dyDescent="0.3">
+      <c r="S45" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="T45">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="46" spans="9:22" x14ac:dyDescent="0.3">
       <c r="L46" s="10" t="s">
         <v>27</v>
       </c>
@@ -2379,8 +2625,11 @@
       </c>
       <c r="O46" s="11"/>
       <c r="P46" s="11"/>
-    </row>
-    <row r="47" spans="12:17" x14ac:dyDescent="0.3">
+      <c r="S46" s="10" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="47" spans="9:22" x14ac:dyDescent="0.3">
       <c r="L47" s="18" t="s">
         <v>28</v>
       </c>
@@ -2397,8 +2646,14 @@
       <c r="Q47" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="48" spans="12:17" x14ac:dyDescent="0.3">
+      <c r="S47" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="T47" s="17"/>
+      <c r="U47" s="17"/>
+      <c r="V47" s="17"/>
+    </row>
+    <row r="48" spans="9:22" x14ac:dyDescent="0.3">
       <c r="L48" s="1" t="s">
         <v>37</v>
       </c>
@@ -2411,8 +2666,14 @@
       <c r="O48" s="9">
         <v>1302</v>
       </c>
-    </row>
-    <row r="49" spans="12:16" x14ac:dyDescent="0.3">
+      <c r="S48" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="T48">
+        <v>1302</v>
+      </c>
+    </row>
+    <row r="49" spans="12:21" x14ac:dyDescent="0.3">
       <c r="L49" s="10" t="s">
         <v>29</v>
       </c>
@@ -2424,8 +2685,11 @@
       </c>
       <c r="O49" s="11"/>
       <c r="P49" s="11"/>
-    </row>
-    <row r="50" spans="12:16" x14ac:dyDescent="0.3">
+      <c r="S49" s="10" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="50" spans="12:21" x14ac:dyDescent="0.3">
       <c r="L50" s="14" t="s">
         <v>30</v>
       </c>
@@ -2439,8 +2703,17 @@
         <v>38</v>
       </c>
       <c r="P50" s="12"/>
-    </row>
-    <row r="51" spans="12:16" x14ac:dyDescent="0.3">
+      <c r="S50" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="T50">
+        <v>242</v>
+      </c>
+      <c r="U50">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="51" spans="12:21" x14ac:dyDescent="0.3">
       <c r="L51" s="1" t="s">
         <v>31</v>
       </c>
@@ -2453,8 +2726,17 @@
       <c r="O51" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="52" spans="12:16" x14ac:dyDescent="0.3">
+      <c r="S51" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="T51">
+        <v>670</v>
+      </c>
+      <c r="U51">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="52" spans="12:21" x14ac:dyDescent="0.3">
       <c r="L52" s="1" t="s">
         <v>32</v>
       </c>
@@ -2464,8 +2746,14 @@
       <c r="N52" s="9">
         <v>1182</v>
       </c>
-    </row>
-    <row r="53" spans="12:16" x14ac:dyDescent="0.3">
+      <c r="S52" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="T52">
+        <v>1182</v>
+      </c>
+    </row>
+    <row r="53" spans="12:21" x14ac:dyDescent="0.3">
       <c r="L53" s="1" t="s">
         <v>33</v>
       </c>
@@ -2481,8 +2769,14 @@
       <c r="P53" s="9">
         <v>907</v>
       </c>
-    </row>
-    <row r="54" spans="12:16" x14ac:dyDescent="0.3">
+      <c r="S53" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="T53">
+        <v>907</v>
+      </c>
+    </row>
+    <row r="54" spans="12:21" x14ac:dyDescent="0.3">
       <c r="L54" s="1" t="s">
         <v>34</v>
       </c>
@@ -2495,8 +2789,14 @@
       <c r="O54" s="9">
         <v>1873</v>
       </c>
-    </row>
-    <row r="55" spans="12:16" x14ac:dyDescent="0.3">
+      <c r="S54" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="T54">
+        <v>1873</v>
+      </c>
+    </row>
+    <row r="55" spans="12:21" x14ac:dyDescent="0.3">
       <c r="L55" s="1" t="s">
         <v>35</v>
       </c>
@@ -2509,8 +2809,17 @@
       <c r="O55">
         <v>1468</v>
       </c>
-    </row>
-    <row r="56" spans="12:16" x14ac:dyDescent="0.3">
+      <c r="S55" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="T55">
+        <v>49</v>
+      </c>
+      <c r="U55">
+        <v>1467</v>
+      </c>
+    </row>
+    <row r="56" spans="12:21" x14ac:dyDescent="0.3">
       <c r="L56" s="1" t="s">
         <v>36</v>
       </c>
@@ -2521,6 +2830,12 @@
         <v>500</v>
       </c>
       <c r="O56">
+        <v>908</v>
+      </c>
+      <c r="S56" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="T56">
         <v>908</v>
       </c>
     </row>
